--- a/forecast_summary_B08L74NCPQ.xlsx
+++ b/forecast_summary_B08L74NCPQ.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>-1.313321655728775</v>
       </c>
       <c r="D2" t="n">
-        <v>20.80528664758215</v>
+        <v>18.33614783274389</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B550M AORUS PRO-P</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>4.924353116296476</v>
       </c>
       <c r="D3" t="n">
-        <v>24.69665420457988</v>
+        <v>24.41834370653369</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B550M AORUS PRO-P</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>4.192768493979228</v>
       </c>
       <c r="D4" t="n">
-        <v>24.56986866893305</v>
+        <v>24.53851941880243</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B550M AORUS PRO-P</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>-4.978620245657585</v>
       </c>
       <c r="D5" t="n">
-        <v>15.8777923460271</v>
+        <v>15.92893812573771</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B550M AORUS PRO-P</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>-15.14906264418264</v>
       </c>
       <c r="D6" t="n">
-        <v>6.896287188123105</v>
+        <v>5.083779023859287</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B550M AORUS PRO-P</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>-18.8906871432417</v>
       </c>
       <c r="D7" t="n">
-        <v>1.411192035205656</v>
+        <v>0.4921272624181365</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B550M AORUS PRO-P</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>-18.08804501208158</v>
       </c>
       <c r="D8" t="n">
-        <v>1.874162338079861</v>
+        <v>3.244563342678808</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B550M AORUS PRO-P</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>-21.50502644827679</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.914193167450108</v>
+        <v>-1.828081695523146</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B550M AORUS PRO-P</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>-32.69755861832841</v>
       </c>
       <c r="D10" t="n">
-        <v>-11.68467484763354</v>
+        <v>-12.30239191981741</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B550M AORUS PRO-P</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>-43.13096907387933</v>
       </c>
       <c r="D11" t="n">
-        <v>-23.77023469824356</v>
+        <v>-23.58766394441515</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B550M AORUS PRO-P</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>-40.17431561406489</v>
       </c>
       <c r="D12" t="n">
-        <v>-19.68203923658163</v>
+        <v>-18.99845662988875</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B550M AORUS PRO-P</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>-21.70515014307401</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.03768818323412</v>
+        <v>-1.675341216192379</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B550M AORUS PRO-P</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>-0.1108644216959791</v>
       </c>
       <c r="D14" t="n">
-        <v>18.83695950019797</v>
+        <v>19.9899070039162</v>
       </c>
       <c r="E14" t="n">
         <v>2</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B550M AORUS PRO-P</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>9.799829867652788</v>
       </c>
       <c r="D15" t="n">
-        <v>30.15724078485929</v>
+        <v>30.1667398760641</v>
       </c>
       <c r="E15" t="n">
         <v>2</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B550M AORUS PRO-P</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -986,13 +1033,13 @@
         <v>45725</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
         <v>5.581571836950017</v>
       </c>
       <c r="D16" t="n">
-        <v>24.22957826004009</v>
+        <v>26.04132147847216</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B550M AORUS PRO-P</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>-2.008020107041954</v>
       </c>
       <c r="D17" t="n">
-        <v>17.76524248754216</v>
+        <v>19.36592593288793</v>
       </c>
       <c r="E17" t="n">
         <v>2</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B550M AORUS PRO-P</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>-2.303792573575906</v>
       </c>
       <c r="D18" t="n">
-        <v>18.32681139924046</v>
+        <v>17.13676891722463</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B550M AORUS PRO-P</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>3.904860196455716</v>
       </c>
       <c r="D19" t="n">
-        <v>25.08088218135741</v>
+        <v>23.54776047941635</v>
       </c>
       <c r="E19" t="n">
         <v>2</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B550M AORUS PRO-P</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>7.632529527002283</v>
       </c>
       <c r="D20" t="n">
-        <v>27.34671383693019</v>
+        <v>26.54268590365859</v>
       </c>
       <c r="E20" t="n">
         <v>2</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B550M AORUS PRO-P</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>4.067723456322874</v>
       </c>
       <c r="D21" t="n">
-        <v>24.79516929259886</v>
+        <v>24.93702846737266</v>
       </c>
       <c r="E21" t="n">
         <v>2</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B550M AORUS PRO-P</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
     </row>
